--- a/biology/Botanique/Bûcheron/Bûcheron.xlsx
+++ b/biology/Botanique/Bûcheron/Bûcheron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%BBcheron</t>
+          <t>Bûcheron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un bûcheron[1] est un professionnel de l'abattage (coupe) des arbres. Les agriculteurs exercent aussi souvent ce type d'activité pour tirer des forêts qu'ils gèrent un revenu et se chauffer. C'est l'un des métiers statistiquement les plus risqués quant aux accidents corporels. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un bûcheron est un professionnel de l'abattage (coupe) des arbres. Les agriculteurs exercent aussi souvent ce type d'activité pour tirer des forêts qu'ils gèrent un revenu et se chauffer. C'est l'un des métiers statistiquement les plus risqués quant aux accidents corporels. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%BBcheron</t>
+          <t>Bûcheron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Tâches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Couper les arbres, les ébrancher, les énœuter, les rainer (pour le bois de mine) afin de produire des grumes, les branches sont débitées en bois de chauffage (bûches d'un mètre le plus souvent), ou d'industrie (minimum 1 mètre et plus pour le merrain, puis après selon le sciage ou le déroulage la longueur est variable).
 Empiler ces bûches en piles régulières.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%BBcheron</t>
+          <t>Bûcheron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Matériel et outillage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le matériel de base était, autrefois, la hache et la scie. Aujourd'hui, dans la plupart des cas, il est largement remplacé par la tronçonneuse et/ou l'abatteuse. De même, depuis la fin de la Première Guerre mondiale, les engins à moteurs (tracteurs et camions à chenilles, puis débardeurs et autres engins adaptés aux terrains difficiles) ont pris la place des chariots et des chevaux pour le débardage.
 Dans certains cas, le bûcheron peut aussi être un élagueur ou élagueur doux (alors susceptible d'utiliser de petites scies à main, voire le sécateur).
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%BBcheron</t>
+          <t>Bûcheron</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Jargon de la profession</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Baraquer consiste à construire une baraque de bois située près des coupes.
 Un chablis est un arbre sec, renversé ou encroué par une tempête. En général, ce terme ne désigne que ceux qui avaient ou ont une certaine valeur monétaire ou sylvicole.
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%BBcheron</t>
+          <t>Bûcheron</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,9 +646,11 @@
           <t>Santé et travail</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le métier de bûcheron est l'un des plus risqués, notamment en montagne, et ceci dès la période de formation.  Ainsi, en 2003 en Suisse, 50 % des apprentis forestiers bûcherons avaient déclaré un accident du travail[2], ce qui a incité la Commission fédérale suisse pour la formation professionnelle (CFFP) et la Suva à lancer un programme conjoint d'amélioration de la sécurité durant la formation, associant 281 formateurs, après une enquête identifiant les dangers et le comportement au travail et face aux dangers et risques, les contextes, les savoirs et savoir-faire techniques des apprentis, les nécessités du métier ainsi que le degré de conscience du risque.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le métier de bûcheron est l'un des plus risqués, notamment en montagne, et ceci dès la période de formation.  Ainsi, en 2003 en Suisse, 50 % des apprentis forestiers bûcherons avaient déclaré un accident du travail, ce qui a incité la Commission fédérale suisse pour la formation professionnelle (CFFP) et la Suva à lancer un programme conjoint d'amélioration de la sécurité durant la formation, associant 281 formateurs, après une enquête identifiant les dangers et le comportement au travail et face aux dangers et risques, les contextes, les savoirs et savoir-faire techniques des apprentis, les nécessités du métier ainsi que le degré de conscience du risque.
 Ce métier se pratique dans la nature (et plus rarement en ville ou au bord de routes et canaux, où les élagueurs doux sont souvent appelés), mais parfois dans de difficiles conditions (froid, humidité, sols glissants).
 Le bûcheron est également exposé à la fumée riche en suies et en huile des tronçonneuses, et parfois à la fumée des feux. Il est recommandé de ne pas être allergique aux pollens, aux piqûres d'insectes, aux fumées et à la poussière de bois.
 Le bûcheron est soit salarié, soit entrepreneur indépendant payé à la tâche. Sa rémunération est très variable car elle est issue directement de la qualité et de la quantité du travail effectué, du type de coupe, de la qualité des bois.
@@ -645,7 +665,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%BBcheron</t>
+          <t>Bûcheron</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,7 +683,9 @@
           <t>Imagerie populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imagerie véhiculée par Lucky Luke et les cinémas américain et québécois veut que le bûcheron soit habillé d'une chemise à carreaux rouge, d'un pantalon en toile, et de chaussures de marche. Il est également souvent représenté avec une barbe.
 </t>
